--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2537.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2537.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.475366991327255</v>
+        <v>1.768214821815491</v>
       </c>
       <c r="B1">
-        <v>2.883503913652163</v>
+        <v>1.956848740577698</v>
       </c>
       <c r="C1">
-        <v>-1</v>
+        <v>2.32818865776062</v>
       </c>
       <c r="D1">
-        <v>1.404341314339722</v>
+        <v>2.889379501342773</v>
       </c>
       <c r="E1">
-        <v>1.258158528680545</v>
+        <v>3.673007249832153</v>
       </c>
     </row>
   </sheetData>
